--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2702.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2702.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165458767109712</v>
+        <v>0.6860853433609009</v>
       </c>
       <c r="B1">
-        <v>2.413761338442499</v>
+        <v>1.041175246238708</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.278500318527222</v>
       </c>
       <c r="D1">
-        <v>2.339504965535932</v>
+        <v>3.766931533813477</v>
       </c>
       <c r="E1">
-        <v>1.216494378556821</v>
+        <v>1.644686818122864</v>
       </c>
     </row>
   </sheetData>
